--- a/data/trans_orig/dukeAFECT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>18,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,54</t>
+          <t>18,65</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 19,11</t>
+          <t>18,68; 19,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 18,6</t>
+          <t>17,83; 18,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,31; 18,79</t>
+          <t>18,43; 18,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,12</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,03</t>
+          <t>18,21</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,6; 18,22</t>
+          <t>17,66; 18,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 18,39</t>
+          <t>18,05; 19,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,23</t>
+          <t>17,97; 18,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>17,84</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,91</t>
+          <t>17,45; 17,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 18,09</t>
+          <t>17,77; 18,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 17,94</t>
+          <t>17,69; 17,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,61</t>
+          <t>17,98</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 18,15</t>
+          <t>17,46; 19,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 17,73</t>
+          <t>17,46; 18,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,89</t>
+          <t>17,56; 18,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,04</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,93</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>17,05</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,28</t>
+          <t>16,82; 17,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,14</t>
+          <t>16,77; 17,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,16</t>
+          <t>16,88; 17,22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,72</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,29</t>
+          <t>16,7</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>17,19</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,4</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>16,81</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>17,33</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,6</t>
+          <t>16,69</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,38; 16,99</t>
+          <t>16,56; 17,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 17,47</t>
+          <t>17,08; 17,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,12</t>
+          <t>16,91; 17,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,11</t>
+          <t>16,76; 17,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 16,59</t>
+          <t>16,31; 17,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,38</t>
+          <t>16,85; 17,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,05; 16,54</t>
+          <t>16,11; 16,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,97; 16,65</t>
+          <t>15,55; 17,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,67</t>
+          <t>16,55; 17,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,36</t>
+          <t>17,12; 17,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 16,71</t>
+          <t>16,56; 17,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,75</t>
+          <t>15,87; 17,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>16,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,36</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,68</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>16,3</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>16,37</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>15,85; 16,85</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 17,33</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 16,77</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 17,08</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 16,3</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 17,47</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 16,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 16,37</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,7; 16,42</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,8; 17,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 16,54</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,16; 16,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,55</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,8</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,2</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,78</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17,18</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17,55</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17,02</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17,38</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17,36</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17,68</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17,11</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>17,45; 17,65</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>17,72; 17,89</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>17,11; 17,29</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 17,72</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 18,3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>17,06; 17,29</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>17,46; 17,64</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>16,93; 17,12</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 17,45</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,89; 17,57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>17,28; 17,44</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>17,61; 17,74</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>17,04; 17,17</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 17,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 17,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/dukeAFECT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Edad-trans_orig.xlsx
@@ -724,47 +724,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,38</t>
+          <t>17,97; 18,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 18,45</t>
+          <t>18,03; 18,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,54; 17,96</t>
+          <t>17,52; 17,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,68; 19,21</t>
+          <t>18,66; 19,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,08</t>
+          <t>17,61; 18,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,0; 18,4</t>
+          <t>17,98; 18,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,0</t>
+          <t>17,56; 17,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,83; 18,65</t>
+          <t>17,86; 18,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,84; 18,16</t>
+          <t>17,84; 18,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 17,92</t>
+          <t>17,59; 17,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 18,88</t>
+          <t>18,39; 18,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,11</t>
+          <t>17,72; 18,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 18,3</t>
+          <t>17,96; 18,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,6</t>
+          <t>17,21; 17,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,28</t>
+          <t>17,68; 18,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 17,95</t>
+          <t>17,48; 17,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 17,98</t>
+          <t>17,59; 17,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 17,7</t>
+          <t>17,33; 17,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,05; 19,01</t>
+          <t>18,04; 19,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 17,98</t>
+          <t>17,68; 17,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 18,11</t>
+          <t>17,85; 18,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,58</t>
+          <t>17,32; 17,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 18,63</t>
+          <t>17,98; 18,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,72</t>
+          <t>17,24; 17,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 17,93</t>
+          <t>17,51; 17,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,61</t>
+          <t>17,24; 17,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,96</t>
+          <t>17,46; 17,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 17,7</t>
+          <t>17,28; 17,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 17,92</t>
+          <t>17,54; 17,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,67</t>
+          <t>17,28; 17,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,12</t>
+          <t>17,76; 18,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,65</t>
+          <t>17,31; 17,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 17,87</t>
+          <t>17,59; 17,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,59</t>
+          <t>17,33; 17,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,69; 17,99</t>
+          <t>17,68; 17,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,75</t>
+          <t>17,22; 17,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 17,88</t>
+          <t>17,41; 17,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,07</t>
+          <t>16,59; 17,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 19,15</t>
+          <t>17,46; 19,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,34</t>
+          <t>16,76; 17,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,55</t>
+          <t>17,08; 17,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,09</t>
+          <t>16,67; 17,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,02</t>
+          <t>17,47; 18,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,47</t>
+          <t>17,06; 17,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,64</t>
+          <t>17,32; 17,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,02</t>
+          <t>16,68; 17,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 18,95</t>
+          <t>17,55; 18,82</t>
         </is>
       </c>
     </row>
@@ -1284,47 +1284,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,57</t>
+          <t>16,93; 17,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,09</t>
+          <t>17,59; 18,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,28</t>
+          <t>16,76; 17,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,35</t>
+          <t>16,85; 17,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,96</t>
+          <t>16,31; 16,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,49</t>
+          <t>16,93; 17,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,83</t>
+          <t>16,28; 16,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 17,19</t>
+          <t>16,77; 17,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,17</t>
+          <t>16,73; 17,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 16,98</t>
+          <t>16,6; 16,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,22</t>
+          <t>16,87; 17,21</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,27</t>
+          <t>16,58; 17,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,77</t>
+          <t>17,14; 17,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,51</t>
+          <t>16,89; 17,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,33</t>
+          <t>16,78; 17,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 17,05</t>
+          <t>16,32; 17,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,47</t>
+          <t>16,89; 17,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,11; 16,72</t>
+          <t>16,13; 16,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,55; 17,27</t>
+          <t>15,56; 17,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,07</t>
+          <t>16,54; 17,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,12; 17,56</t>
+          <t>17,1; 17,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,0</t>
+          <t>16,56; 16,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,87; 17,19</t>
+          <t>15,88; 17,19</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,85; 16,85</t>
+          <t>15,91; 16,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,33</t>
+          <t>16,51; 17,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,77</t>
+          <t>16,11; 16,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,08</t>
+          <t>16,47; 17,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 16,3</t>
+          <t>15,38; 16,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,47</t>
+          <t>16,86; 17,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,79; 16,56</t>
+          <t>15,8; 16,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,82; 16,37</t>
+          <t>15,86; 16,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,7; 16,42</t>
+          <t>15,75; 16,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,32</t>
+          <t>16,82; 17,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,01; 16,54</t>
+          <t>16,03; 16,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 16,57</t>
+          <t>16,18; 16,57</t>
         </is>
       </c>
     </row>
@@ -1704,34 +1704,34 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>17,43; 17,65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17,71; 17,89</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 17,28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 18,32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 17,28</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>17,45; 17,65</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>17,72; 17,89</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>17,11; 17,29</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 18,3</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 17,29</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 17,64</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
           <t>16,93; 17,12</t>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,57</t>
+          <t>16,97; 17,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,28; 17,44</t>
+          <t>17,28; 17,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,17</t>
+          <t>17,04; 17,18</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,82</t>
+          <t>17,36; 17,81</t>
         </is>
       </c>
     </row>
